--- a/数据整理/stocks/A股/深证主板/002989-中天精装.xlsx
+++ b/数据整理/stocks/A股/深证主板/002989-中天精装.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.42</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.17</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001583</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信新常态沪港深精选股票</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>26.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001185</t>
+          <t>001583</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信动态策略灵活配置混合A</t>
+          <t>安信新常态沪港深精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>35.95</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006818</t>
+          <t>001185</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信盈利驱动股票A</t>
+          <t>安信动态策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006819</t>
+          <t>006818</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信盈利驱动股票C</t>
+          <t>安信盈利驱动股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.03</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.10</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002029</t>
+          <t>005587</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信动态策略灵活配置混合C</t>
+          <t>安信比较优势灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.95</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>002029</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>安信动态策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005587</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信比较优势灵活配置混合</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>006819</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>安信盈利驱动股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>66.40</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001174</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.40</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>001174</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>中欧瑾和灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002989-中天精装.xlsx
+++ b/数据整理/stocks/A股/深证主板/002989-中天精装.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002989-中天精装.xlsx
+++ b/数据整理/stocks/A股/深证主板/002989-中天精装.xlsx
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002989-中天精装.xlsx
+++ b/数据整理/stocks/A股/深证主板/002989-中天精装.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,433 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1041</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1041</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8740</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001583</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信新常态沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5198</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001185</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1440</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1117</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005587</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信比较优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1033</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002029</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008477</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信价值驱动三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0861</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
+      <c r="D3" t="n">
+        <v>4.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1096,64 +728,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.15</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>